--- a/amd57.xlsx
+++ b/amd57.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khunach\Desktop\projectkmitl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="amd57" sheetId="1" r:id="rId1"/>
@@ -163,12 +168,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -176,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -185,7 +193,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -194,7 +202,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -203,7 +211,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -212,7 +220,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -220,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -228,7 +236,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -236,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -244,7 +252,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -253,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -262,7 +270,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -270,7 +278,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -279,7 +287,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -287,7 +295,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -296,7 +304,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -305,7 +313,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -313,7 +321,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -662,7 +670,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -683,25 +691,25 @@
     <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="เซลล์ที่มีการเชื่อมโยง" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -714,12 +722,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -761,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,7 +807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,11 +1018,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,11 +1050,11 @@
       <c r="G1" s="1">
         <v>19748.259999999998</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>637.92729999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1053,17 +1070,17 @@
       <c r="E2" s="1">
         <v>20406.25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>17602.5</v>
       </c>
       <c r="G2" s="1">
         <v>18466.580000000002</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>579.23329999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1085,11 +1102,11 @@
       <c r="G3" s="1">
         <v>16638.61</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>618.55269999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1111,11 +1128,11 @@
       <c r="G4" s="1">
         <v>18673.63</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>700.59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1137,11 +1154,11 @@
       <c r="G5" s="1">
         <v>18727.560000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>571.8809</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1163,11 +1180,11 @@
       <c r="G6" s="1">
         <v>18181.02</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>466.96510000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1189,11 +1206,11 @@
       <c r="G7" s="1">
         <v>16145.37</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>271.62599999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1215,11 +1232,11 @@
       <c r="G8" s="1">
         <v>17231.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>705.5829</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1241,11 +1258,11 @@
       <c r="G9" s="1">
         <v>18918.91</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>643.15329999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1267,11 +1284,11 @@
       <c r="G10" s="1">
         <v>18270.96</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>515.44730000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1293,11 +1310,11 @@
       <c r="G11" s="1">
         <v>16853.96</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>351.38679999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1336,11 @@
       <c r="G12" s="1">
         <v>17456.009999999998</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>515.11109999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1345,11 +1362,11 @@
       <c r="G13" s="1">
         <v>17803.68</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>784.67960000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1371,11 +1388,11 @@
       <c r="G14" s="1">
         <v>16629.71</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>238.9486</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1397,11 +1414,11 @@
       <c r="G15" s="1">
         <v>17720.09</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>497.41210000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1440,11 @@
       <c r="G16" s="1">
         <v>17393.57</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>533.01319999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1449,11 +1466,11 @@
       <c r="G17" s="1">
         <v>18930.84</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>404.95650000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1475,11 +1492,11 @@
       <c r="G18" s="1">
         <v>18004.419999999998</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>574.36940000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1501,11 +1518,11 @@
       <c r="G19" s="1">
         <v>18464.54</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>654.15089999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1527,11 +1544,11 @@
       <c r="G20" s="1">
         <v>17707.73</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>737.77359999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1553,11 +1570,11 @@
       <c r="G21" s="1">
         <v>20776.91</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>709.34169999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1579,11 +1596,11 @@
       <c r="G22" s="1">
         <v>15890.79</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>643.9194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1605,11 +1622,11 @@
       <c r="G23" s="1">
         <v>17644.099999999999</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>902.97850000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1631,11 +1648,11 @@
       <c r="G24" s="1">
         <v>17527.990000000002</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>761.7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1678,7 @@
         <v>1074.79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1683,11 +1700,11 @@
       <c r="G26" s="1">
         <v>14749.7</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>968.71990000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1709,11 +1726,11 @@
       <c r="G27" s="1">
         <v>11878.89</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>905.92</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1735,11 +1752,11 @@
       <c r="G28" s="1">
         <v>13293.4</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>765.51909999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1761,11 +1778,11 @@
       <c r="G29" s="1">
         <v>12800.61</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>501.9273</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1787,11 +1804,11 @@
       <c r="G30" s="1">
         <v>12793.61</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>723.62400000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1813,11 +1830,11 @@
       <c r="G31" s="1">
         <v>13255.63</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>513.33240000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1839,11 +1856,11 @@
       <c r="G32" s="1">
         <v>13734.18</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>511.09969999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1865,11 +1882,11 @@
       <c r="G33" s="1">
         <v>14418.85</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>601.50450000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1891,11 +1908,11 @@
       <c r="G34" s="1">
         <v>14804.72</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>503.18369999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1917,11 +1934,11 @@
       <c r="G35" s="1">
         <v>15147.66</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>582.01769999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1943,11 +1960,11 @@
       <c r="G36" s="1">
         <v>14353.78</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>508.95569999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +1990,7 @@
         <v>1085.0899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1995,11 +2012,11 @@
       <c r="G38" s="1">
         <v>14658.46</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>617.59069999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2021,11 +2038,11 @@
       <c r="G39" s="1">
         <v>13801.96</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>523.28579999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2047,11 +2064,11 @@
       <c r="G40" s="1">
         <v>13738.89</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>471.6302</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2073,11 +2090,11 @@
       <c r="G41" s="1">
         <v>15511.05</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>432.72680000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2099,11 +2116,11 @@
       <c r="G42" s="1">
         <v>13822.3</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>470.85849999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2125,11 +2142,11 @@
       <c r="G43" s="1">
         <v>14443.61</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>603.1277</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2151,11 +2168,11 @@
       <c r="G44" s="1">
         <v>15189.44</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>775.81799999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2177,11 +2194,11 @@
       <c r="G45" s="1">
         <v>17757.849999999999</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2203,11 +2220,11 @@
       <c r="G46" s="1">
         <v>15704.02</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>378.84960000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2229,11 +2246,11 @@
       <c r="G47" s="1">
         <v>16269.87</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>638.40769999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2255,7 +2272,7 @@
       <c r="G48" s="1">
         <v>16459.46</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>469.82769999999999</v>
       </c>
     </row>
